--- a/T1-Data.xlsx
+++ b/T1-Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1trea\IdeaProjects\ClassScheduling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E481158D-3A94-44BD-9393-0AA5EC0C3679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{679F8F41-A3BA-4FD7-90C1-4FE25A9DA22C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="28">
   <si>
     <t>Highest fitness</t>
   </si>
@@ -76,18 +76,72 @@
   <si>
     <t xml:space="preserve">c1.0_m0.0_UNIFORM Average fitness </t>
   </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>st.dev</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Column2</t>
+  </si>
+  <si>
+    <t>Column3</t>
+  </si>
+  <si>
+    <t>Column4</t>
+  </si>
+  <si>
+    <t>Column5</t>
+  </si>
+  <si>
+    <t>Column6</t>
+  </si>
+  <si>
+    <t>Column7</t>
+  </si>
+  <si>
+    <t>T-Test - Highest fitness per generation C1.0_M0.2</t>
+  </si>
+  <si>
+    <t>T-Test - Highest fitness per generation C1.0 M0.0 and C1.0 M0.2 UNIFORM</t>
+  </si>
+  <si>
+    <t>T-Test - Highest fitness per generation C1.0 M0.1 and C0.9 M0.1 UNIFORM</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -110,11 +164,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -15798,6 +15854,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.19731902552056441"/>
+          <c:y val="0.80964401514995643"/>
+          <c:w val="0.63231701130887541"/>
+          <c:h val="0.17750503328936126"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -32797,6 +32863,22 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1FB86539-1384-4E12-8B51-B9B493EB265F}" name="Table1" displayName="Table1" ref="AJ21:AP43" totalsRowShown="0">
+  <autoFilter ref="AJ21:AP43" xr:uid="{1FB86539-1384-4E12-8B51-B9B493EB265F}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{E90392D1-0999-4D96-A859-BE5FFF84E415}" name="Column1"/>
+    <tableColumn id="2" xr3:uid="{50BE2BB4-B84D-4CED-B12A-5CF20AD19C88}" name="Column2"/>
+    <tableColumn id="3" xr3:uid="{858017BD-1561-40F0-A7EF-164A01BDD459}" name="Column3"/>
+    <tableColumn id="4" xr3:uid="{B1101927-CA37-4EDE-A1AB-91312AE478AD}" name="Column4"/>
+    <tableColumn id="5" xr3:uid="{5C9BDF88-61E5-4E7E-8190-B74B11F10C2D}" name="Column5"/>
+    <tableColumn id="6" xr3:uid="{EA88E445-8883-4278-9F30-CCC4351598D8}" name="Column6"/>
+    <tableColumn id="7" xr3:uid="{FD0F474B-FEA1-4BE0-9EA2-47C692398CF3}" name="Column7"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -33060,10 +33142,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V502"/>
+  <dimension ref="A1:BE502"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:N2"/>
+    <sheetView tabSelected="1" topLeftCell="AH22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AK54" sqref="AK54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33090,9 +33172,29 @@
     <col min="20" max="20" width="20.28515625" customWidth="1"/>
     <col min="21" max="21" width="18.42578125" customWidth="1"/>
     <col min="22" max="22" width="17.7109375" customWidth="1"/>
+    <col min="36" max="36" width="11.28515625" customWidth="1"/>
+    <col min="37" max="37" width="17.7109375" customWidth="1"/>
+    <col min="38" max="38" width="18.140625" customWidth="1"/>
+    <col min="39" max="39" width="16.140625" customWidth="1"/>
+    <col min="40" max="40" width="18.140625" customWidth="1"/>
+    <col min="41" max="41" width="19" customWidth="1"/>
+    <col min="42" max="43" width="16.140625" customWidth="1"/>
+    <col min="44" max="44" width="16.28515625" customWidth="1"/>
+    <col min="45" max="46" width="16.7109375" customWidth="1"/>
+    <col min="47" max="47" width="18.28515625" customWidth="1"/>
+    <col min="48" max="48" width="16.42578125" customWidth="1"/>
+    <col min="49" max="49" width="17.85546875" customWidth="1"/>
+    <col min="50" max="50" width="15.7109375" customWidth="1"/>
+    <col min="51" max="51" width="17.5703125" customWidth="1"/>
+    <col min="52" max="52" width="17" customWidth="1"/>
+    <col min="53" max="53" width="15.28515625" customWidth="1"/>
+    <col min="54" max="54" width="19.140625" customWidth="1"/>
+    <col min="55" max="55" width="15.7109375" customWidth="1"/>
+    <col min="56" max="56" width="16.140625" customWidth="1"/>
+    <col min="57" max="57" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
@@ -33133,8 +33235,48 @@
         <v>11</v>
       </c>
       <c r="V1" s="1"/>
+      <c r="AK1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL1" s="1"/>
+      <c r="AM1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN1" s="1"/>
+      <c r="AO1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP1" s="1"/>
+      <c r="AQ1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR1" s="1"/>
+      <c r="AS1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AT1" s="1"/>
+      <c r="AV1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AW1" s="1"/>
+      <c r="AX1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AY1" s="1"/>
+      <c r="AZ1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="BA1" s="1"/>
+      <c r="BB1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="BC1" s="1"/>
+      <c r="BD1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="BE1" s="1"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -33195,8 +33337,68 @@
       <c r="V2" t="s">
         <v>1</v>
       </c>
+      <c r="AK2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -33260,8 +33462,91 @@
       <c r="V3">
         <v>1.16226292E-2</v>
       </c>
+      <c r="AJ3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AK3">
+        <f>MIN(B:B)</f>
+        <v>2.2939232999999996E-2</v>
+      </c>
+      <c r="AL3">
+        <f t="shared" ref="AL2:BG3" si="0">MIN(C:C)</f>
+        <v>1.1616719250000001E-2</v>
+      </c>
+      <c r="AM3">
+        <f t="shared" si="0"/>
+        <v>2.3012370949999996E-2</v>
+      </c>
+      <c r="AN3">
+        <f t="shared" si="0"/>
+        <v>1.1623308299999999E-2</v>
+      </c>
+      <c r="AO3">
+        <f t="shared" si="0"/>
+        <v>2.2842014149999996E-2</v>
+      </c>
+      <c r="AP3">
+        <f t="shared" si="0"/>
+        <v>1.1623674649999999E-2</v>
+      </c>
+      <c r="AQ3">
+        <f t="shared" si="0"/>
+        <v>2.216414865E-2</v>
+      </c>
+      <c r="AR3">
+        <f t="shared" si="0"/>
+        <v>1.1617133500000001E-2</v>
+      </c>
+      <c r="AS3">
+        <f t="shared" si="0"/>
+        <v>2.2668472399999997E-2</v>
+      </c>
+      <c r="AT3">
+        <f t="shared" si="0"/>
+        <v>1.16441802E-2</v>
+      </c>
+      <c r="AV3">
+        <f t="shared" si="0"/>
+        <v>2.2634790049999999E-2</v>
+      </c>
+      <c r="AW3">
+        <f t="shared" si="0"/>
+        <v>1.1615175700000001E-2</v>
+      </c>
+      <c r="AX3">
+        <f t="shared" si="0"/>
+        <v>2.24400066E-2</v>
+      </c>
+      <c r="AY3">
+        <f t="shared" si="0"/>
+        <v>1.160562205E-2</v>
+      </c>
+      <c r="AZ3">
+        <f t="shared" si="0"/>
+        <v>2.2488470149999999E-2</v>
+      </c>
+      <c r="BA3">
+        <f t="shared" si="0"/>
+        <v>1.1619240800000001E-2</v>
+      </c>
+      <c r="BB3">
+        <f t="shared" si="0"/>
+        <v>2.2777439400000002E-2</v>
+      </c>
+      <c r="BC3">
+        <f t="shared" si="0"/>
+        <v>1.163091845E-2</v>
+      </c>
+      <c r="BD3">
+        <f t="shared" si="0"/>
+        <v>2.2975706199999998E-2</v>
+      </c>
+      <c r="BE3">
+        <f t="shared" si="0"/>
+        <v>1.16226292E-2</v>
+      </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -33325,8 +33610,91 @@
       <c r="V4">
         <v>1.367992445E-2</v>
       </c>
+      <c r="AJ4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK4">
+        <f>MAX(B:B)</f>
+        <v>0.31142857135000007</v>
+      </c>
+      <c r="AL4">
+        <f t="shared" ref="AL3:BE4" si="1">MAX(C:C)</f>
+        <v>0.30497230735000003</v>
+      </c>
+      <c r="AM4">
+        <f t="shared" si="1"/>
+        <v>0.65999999984999991</v>
+      </c>
+      <c r="AN4">
+        <f t="shared" si="1"/>
+        <v>0.46981334069999992</v>
+      </c>
+      <c r="AO4">
+        <f t="shared" si="1"/>
+        <v>0.13393273394999999</v>
+      </c>
+      <c r="AP4">
+        <f t="shared" si="1"/>
+        <v>0.13332911694999999</v>
+      </c>
+      <c r="AQ4">
+        <f t="shared" si="1"/>
+        <v>0.63999999989999989</v>
+      </c>
+      <c r="AR4">
+        <f t="shared" si="1"/>
+        <v>0.54372132915000004</v>
+      </c>
+      <c r="AS4">
+        <f t="shared" si="1"/>
+        <v>0.89333333329999998</v>
+      </c>
+      <c r="AT4">
+        <f t="shared" si="1"/>
+        <v>0.48684931475000004</v>
+      </c>
+      <c r="AV4">
+        <f t="shared" si="1"/>
+        <v>9.0923194499999999E-2</v>
+      </c>
+      <c r="AW4">
+        <f t="shared" si="1"/>
+        <v>9.065244674999999E-2</v>
+      </c>
+      <c r="AX4">
+        <f t="shared" si="1"/>
+        <v>0.33523809509999991</v>
+      </c>
+      <c r="AY4">
+        <f t="shared" si="1"/>
+        <v>0.27191441359999996</v>
+      </c>
+      <c r="AZ4">
+        <f t="shared" si="1"/>
+        <v>7.2837386350000019E-2</v>
+      </c>
+      <c r="BA4">
+        <f t="shared" si="1"/>
+        <v>7.2563329300000007E-2</v>
+      </c>
+      <c r="BB4">
+        <f t="shared" si="1"/>
+        <v>0.30380952364999997</v>
+      </c>
+      <c r="BC4">
+        <f t="shared" si="1"/>
+        <v>0.27820233175000003</v>
+      </c>
+      <c r="BD4">
+        <f t="shared" si="1"/>
+        <v>0.39047619029999991</v>
+      </c>
+      <c r="BE4">
+        <f t="shared" si="1"/>
+        <v>0.27650035125000005</v>
+      </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -33390,8 +33758,91 @@
       <c r="V5">
         <v>1.51655557E-2</v>
       </c>
+      <c r="AJ5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK5">
+        <f>AVERAGE(B:B)</f>
+        <v>0.29104358039730344</v>
+      </c>
+      <c r="AL5">
+        <f t="shared" ref="AL4:BF5" si="2">AVERAGE(C:C)</f>
+        <v>0.2783075201298002</v>
+      </c>
+      <c r="AM5">
+        <f t="shared" si="2"/>
+        <v>0.57078692449810042</v>
+      </c>
+      <c r="AN5">
+        <f t="shared" si="2"/>
+        <v>0.40394139489079989</v>
+      </c>
+      <c r="AO5">
+        <f t="shared" si="2"/>
+        <v>0.12949918073369893</v>
+      </c>
+      <c r="AP5">
+        <f t="shared" si="2"/>
+        <v>0.12696558765659988</v>
+      </c>
+      <c r="AQ5">
+        <f t="shared" si="2"/>
+        <v>0.47902676012500073</v>
+      </c>
+      <c r="AR5">
+        <f t="shared" si="2"/>
+        <v>0.43531526279989968</v>
+      </c>
+      <c r="AS5">
+        <f t="shared" si="2"/>
+        <v>0.69643579761379892</v>
+      </c>
+      <c r="AT5">
+        <f t="shared" si="2"/>
+        <v>0.38035158755459997</v>
+      </c>
+      <c r="AV5">
+        <f t="shared" si="2"/>
+        <v>8.9038770082400173E-2</v>
+      </c>
+      <c r="AW5">
+        <f t="shared" si="2"/>
+        <v>8.7714344755699933E-2</v>
+      </c>
+      <c r="AX5">
+        <f t="shared" si="2"/>
+        <v>0.23319419020260179</v>
+      </c>
+      <c r="AY5">
+        <f t="shared" si="2"/>
+        <v>0.19251076985780002</v>
+      </c>
+      <c r="AZ5">
+        <f t="shared" si="2"/>
+        <v>7.1613021295099916E-2</v>
+      </c>
+      <c r="BA5">
+        <f t="shared" si="2"/>
+        <v>7.0532931511400027E-2</v>
+      </c>
+      <c r="BB5">
+        <f t="shared" si="2"/>
+        <v>0.23098290762050022</v>
+      </c>
+      <c r="BC5">
+        <f t="shared" si="2"/>
+        <v>0.2174146790384</v>
+      </c>
+      <c r="BD5">
+        <f t="shared" si="2"/>
+        <v>0.34425292798690227</v>
+      </c>
+      <c r="BE5">
+        <f t="shared" si="2"/>
+        <v>0.24126169728500013</v>
+      </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -33455,8 +33906,91 @@
       <c r="V6">
         <v>1.6359965849999998E-2</v>
       </c>
+      <c r="AJ6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK6">
+        <f>MEDIAN(B:B)</f>
+        <v>0.31142857135000007</v>
+      </c>
+      <c r="AL6">
+        <f t="shared" ref="AL5:BE6" si="3">MEDIAN(C:C)</f>
+        <v>0.30309543625000002</v>
+      </c>
+      <c r="AM6">
+        <f t="shared" si="3"/>
+        <v>0.62666666650000002</v>
+      </c>
+      <c r="AN6">
+        <f t="shared" si="3"/>
+        <v>0.45017258540000005</v>
+      </c>
+      <c r="AO6">
+        <f t="shared" si="3"/>
+        <v>0.13393273394999999</v>
+      </c>
+      <c r="AP6">
+        <f t="shared" si="3"/>
+        <v>0.1330940283</v>
+      </c>
+      <c r="AQ6">
+        <f t="shared" si="3"/>
+        <v>0.5238095237</v>
+      </c>
+      <c r="AR6">
+        <f t="shared" si="3"/>
+        <v>0.50534955310000007</v>
+      </c>
+      <c r="AS6">
+        <f t="shared" si="3"/>
+        <v>0.75333333325000007</v>
+      </c>
+      <c r="AT6">
+        <f t="shared" si="3"/>
+        <v>0.42525472402499997</v>
+      </c>
+      <c r="AV6">
+        <f t="shared" si="3"/>
+        <v>9.0923194499999999E-2</v>
+      </c>
+      <c r="AW6">
+        <f t="shared" si="3"/>
+        <v>9.0549991375E-2</v>
+      </c>
+      <c r="AX6">
+        <f t="shared" si="3"/>
+        <v>0.23904761894999998</v>
+      </c>
+      <c r="AY6">
+        <f t="shared" si="3"/>
+        <v>0.19898361772500001</v>
+      </c>
+      <c r="AZ6">
+        <f t="shared" si="3"/>
+        <v>7.2837386350000019E-2</v>
+      </c>
+      <c r="BA6">
+        <f t="shared" si="3"/>
+        <v>7.2472778450000011E-2</v>
+      </c>
+      <c r="BB6">
+        <f t="shared" si="3"/>
+        <v>0.22978354970000003</v>
+      </c>
+      <c r="BC6">
+        <f t="shared" si="3"/>
+        <v>0.22194229787499997</v>
+      </c>
+      <c r="BD6">
+        <f t="shared" si="3"/>
+        <v>0.38222222204999995</v>
+      </c>
+      <c r="BE6">
+        <f t="shared" si="3"/>
+        <v>0.26644569434999998</v>
+      </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -33520,8 +34054,91 @@
       <c r="V7">
         <v>1.736262035E-2</v>
       </c>
+      <c r="AJ7" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK7">
+        <f>_xlfn.STDEV.S(B:B)</f>
+        <v>6.0869027866486507E-2</v>
+      </c>
+      <c r="AL7">
+        <f t="shared" ref="AL6:BE7" si="4">_xlfn.STDEV.S(C:C)</f>
+        <v>7.0101685641197398E-2</v>
+      </c>
+      <c r="AM7">
+        <f t="shared" si="4"/>
+        <v>0.15588293799573241</v>
+      </c>
+      <c r="AN7">
+        <f t="shared" si="4"/>
+        <v>0.1208989222343165</v>
+      </c>
+      <c r="AO7">
+        <f t="shared" si="4"/>
+        <v>1.907627466820554E-2</v>
+      </c>
+      <c r="AP7">
+        <f t="shared" si="4"/>
+        <v>2.3864838370923264E-2</v>
+      </c>
+      <c r="AQ7">
+        <f t="shared" si="4"/>
+        <v>0.14521049218255985</v>
+      </c>
+      <c r="AR7">
+        <f t="shared" si="4"/>
+        <v>0.1403165210264411</v>
+      </c>
+      <c r="AS7">
+        <f t="shared" si="4"/>
+        <v>0.21408797664024815</v>
+      </c>
+      <c r="AT7">
+        <f t="shared" si="4"/>
+        <v>0.12811555487480208</v>
+      </c>
+      <c r="AV7">
+        <f t="shared" si="4"/>
+        <v>9.3135586928772048E-3</v>
+      </c>
+      <c r="AW7">
+        <f t="shared" si="4"/>
+        <v>1.2705903756929347E-2</v>
+      </c>
+      <c r="AX7">
+        <f t="shared" si="4"/>
+        <v>5.3271178974927648E-2</v>
+      </c>
+      <c r="AY7">
+        <f t="shared" si="4"/>
+        <v>4.4262711842979419E-2</v>
+      </c>
+      <c r="AZ7">
+        <f t="shared" si="4"/>
+        <v>6.2299059774654818E-3</v>
+      </c>
+      <c r="BA7">
+        <f t="shared" si="4"/>
+        <v>8.9094389695614177E-3</v>
+      </c>
+      <c r="BB7">
+        <f t="shared" si="4"/>
+        <v>5.9350642817436218E-2</v>
+      </c>
+      <c r="BC7">
+        <f t="shared" si="4"/>
+        <v>5.8467604465413096E-2</v>
+      </c>
+      <c r="BD7">
+        <f t="shared" si="4"/>
+        <v>8.7736093111175015E-2</v>
+      </c>
+      <c r="BE7">
+        <f t="shared" si="4"/>
+        <v>6.1359913093242395E-2</v>
+      </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -33586,7 +34203,7 @@
         <v>1.8301758999999994E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
@@ -33651,7 +34268,7 @@
         <v>1.922581885E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
@@ -33716,7 +34333,7 @@
         <v>2.0140581200000004E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8</v>
       </c>
@@ -33781,7 +34398,7 @@
         <v>2.1152994500000001E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9</v>
       </c>
@@ -33845,8 +34462,38 @@
       <c r="V12">
         <v>2.2163734950000007E-2</v>
       </c>
+      <c r="AK12" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>4</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>5</v>
+      </c>
+      <c r="AS12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AV12" t="s">
+        <v>7</v>
+      </c>
+      <c r="AX12" t="s">
+        <v>8</v>
+      </c>
+      <c r="AZ12" t="s">
+        <v>9</v>
+      </c>
+      <c r="BB12" t="s">
+        <v>10</v>
+      </c>
+      <c r="BD12" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10</v>
       </c>
@@ -33910,8 +34557,68 @@
       <c r="V13">
         <v>2.3311009450000003E-2</v>
       </c>
+      <c r="AK13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ13" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA13" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB13" t="s">
+        <v>0</v>
+      </c>
+      <c r="BC13" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD13" t="s">
+        <v>0</v>
+      </c>
+      <c r="BE13" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>11</v>
       </c>
@@ -33975,8 +34682,71 @@
       <c r="V14">
         <v>2.452504065E-2</v>
       </c>
+      <c r="AJ14" t="s">
+        <v>13</v>
+      </c>
+      <c r="AK14">
+        <v>2.2939232999999996E-2</v>
+      </c>
+      <c r="AL14">
+        <v>1.1616719250000001E-2</v>
+      </c>
+      <c r="AM14">
+        <v>2.3012370949999996E-2</v>
+      </c>
+      <c r="AN14">
+        <v>1.1623308299999999E-2</v>
+      </c>
+      <c r="AO14">
+        <v>2.2842014149999996E-2</v>
+      </c>
+      <c r="AP14">
+        <v>1.1623674649999999E-2</v>
+      </c>
+      <c r="AQ14">
+        <v>2.216414865E-2</v>
+      </c>
+      <c r="AR14">
+        <v>1.1617133500000001E-2</v>
+      </c>
+      <c r="AS14">
+        <v>2.2668472399999997E-2</v>
+      </c>
+      <c r="AT14">
+        <v>1.16441802E-2</v>
+      </c>
+      <c r="AV14">
+        <v>2.2634790049999999E-2</v>
+      </c>
+      <c r="AW14">
+        <v>1.1615175700000001E-2</v>
+      </c>
+      <c r="AX14">
+        <v>2.24400066E-2</v>
+      </c>
+      <c r="AY14">
+        <v>1.160562205E-2</v>
+      </c>
+      <c r="AZ14">
+        <v>2.2488470149999999E-2</v>
+      </c>
+      <c r="BA14">
+        <v>1.1619240800000001E-2</v>
+      </c>
+      <c r="BB14">
+        <v>2.2777439400000002E-2</v>
+      </c>
+      <c r="BC14">
+        <v>1.163091845E-2</v>
+      </c>
+      <c r="BD14">
+        <v>2.2975706199999998E-2</v>
+      </c>
+      <c r="BE14">
+        <v>1.16226292E-2</v>
+      </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12</v>
       </c>
@@ -34040,8 +34810,71 @@
       <c r="V15">
         <v>2.5996563600000001E-2</v>
       </c>
+      <c r="AJ15" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK15">
+        <v>0.31142857135000007</v>
+      </c>
+      <c r="AL15">
+        <v>0.30497230735000003</v>
+      </c>
+      <c r="AM15">
+        <v>0.65999999984999991</v>
+      </c>
+      <c r="AN15">
+        <v>0.46981334069999992</v>
+      </c>
+      <c r="AO15">
+        <v>0.13393273394999999</v>
+      </c>
+      <c r="AP15">
+        <v>0.13332911694999999</v>
+      </c>
+      <c r="AQ15">
+        <v>0.63999999989999989</v>
+      </c>
+      <c r="AR15">
+        <v>0.54372132915000004</v>
+      </c>
+      <c r="AS15">
+        <v>0.89333333329999998</v>
+      </c>
+      <c r="AT15">
+        <v>0.48684931475000004</v>
+      </c>
+      <c r="AV15">
+        <v>9.0923194499999999E-2</v>
+      </c>
+      <c r="AW15">
+        <v>9.065244674999999E-2</v>
+      </c>
+      <c r="AX15">
+        <v>0.33523809509999991</v>
+      </c>
+      <c r="AY15">
+        <v>0.27191441359999996</v>
+      </c>
+      <c r="AZ15">
+        <v>7.2837386350000019E-2</v>
+      </c>
+      <c r="BA15">
+        <v>7.2563329300000007E-2</v>
+      </c>
+      <c r="BB15">
+        <v>0.30380952364999997</v>
+      </c>
+      <c r="BC15">
+        <v>0.27820233175000003</v>
+      </c>
+      <c r="BD15">
+        <v>0.39047619029999991</v>
+      </c>
+      <c r="BE15">
+        <v>0.27650035125000005</v>
+      </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>13</v>
       </c>
@@ -34105,8 +34938,71 @@
       <c r="V16">
         <v>2.7633728899999998E-2</v>
       </c>
+      <c r="AJ16" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK16">
+        <v>0.29104358039730344</v>
+      </c>
+      <c r="AL16">
+        <v>0.2783075201298002</v>
+      </c>
+      <c r="AM16">
+        <v>0.57078692449810042</v>
+      </c>
+      <c r="AN16">
+        <v>0.40394139489079989</v>
+      </c>
+      <c r="AO16">
+        <v>0.12949918073369893</v>
+      </c>
+      <c r="AP16">
+        <v>0.12696558765659988</v>
+      </c>
+      <c r="AQ16">
+        <v>0.47902676012500073</v>
+      </c>
+      <c r="AR16">
+        <v>0.43531526279989968</v>
+      </c>
+      <c r="AS16">
+        <v>0.69643579761379892</v>
+      </c>
+      <c r="AT16">
+        <v>0.38035158755459997</v>
+      </c>
+      <c r="AV16">
+        <v>8.9038770082400173E-2</v>
+      </c>
+      <c r="AW16">
+        <v>8.7714344755699933E-2</v>
+      </c>
+      <c r="AX16">
+        <v>0.23319419020260179</v>
+      </c>
+      <c r="AY16">
+        <v>0.19251076985780002</v>
+      </c>
+      <c r="AZ16">
+        <v>7.1613021295099916E-2</v>
+      </c>
+      <c r="BA16">
+        <v>7.0532931511400027E-2</v>
+      </c>
+      <c r="BB16">
+        <v>0.23098290762050022</v>
+      </c>
+      <c r="BC16">
+        <v>0.2174146790384</v>
+      </c>
+      <c r="BD16">
+        <v>0.34425292798690227</v>
+      </c>
+      <c r="BE16">
+        <v>0.24126169728500013</v>
+      </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>14</v>
       </c>
@@ -34170,8 +35066,71 @@
       <c r="V17">
         <v>2.9274078599999993E-2</v>
       </c>
+      <c r="AJ17" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK17">
+        <v>0.31142857135000007</v>
+      </c>
+      <c r="AL17">
+        <v>0.30309543625000002</v>
+      </c>
+      <c r="AM17">
+        <v>0.62666666650000002</v>
+      </c>
+      <c r="AN17">
+        <v>0.45017258540000005</v>
+      </c>
+      <c r="AO17">
+        <v>0.13393273394999999</v>
+      </c>
+      <c r="AP17">
+        <v>0.1330940283</v>
+      </c>
+      <c r="AQ17">
+        <v>0.5238095237</v>
+      </c>
+      <c r="AR17">
+        <v>0.50534955310000007</v>
+      </c>
+      <c r="AS17">
+        <v>0.75333333325000007</v>
+      </c>
+      <c r="AT17">
+        <v>0.42525472402499997</v>
+      </c>
+      <c r="AV17">
+        <v>9.0923194499999999E-2</v>
+      </c>
+      <c r="AW17">
+        <v>9.0549991375E-2</v>
+      </c>
+      <c r="AX17">
+        <v>0.23904761894999998</v>
+      </c>
+      <c r="AY17">
+        <v>0.19898361772500001</v>
+      </c>
+      <c r="AZ17">
+        <v>7.2837386350000019E-2</v>
+      </c>
+      <c r="BA17">
+        <v>7.2472778450000011E-2</v>
+      </c>
+      <c r="BB17">
+        <v>0.22978354970000003</v>
+      </c>
+      <c r="BC17">
+        <v>0.22194229787499997</v>
+      </c>
+      <c r="BD17">
+        <v>0.38222222204999995</v>
+      </c>
+      <c r="BE17">
+        <v>0.26644569434999998</v>
+      </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>15</v>
       </c>
@@ -34235,8 +35194,71 @@
       <c r="V18">
         <v>3.1290036299999997E-2</v>
       </c>
+      <c r="AJ18" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK18">
+        <v>6.0869027866486507E-2</v>
+      </c>
+      <c r="AL18">
+        <v>7.0101685641197398E-2</v>
+      </c>
+      <c r="AM18">
+        <v>0.15588293799573241</v>
+      </c>
+      <c r="AN18">
+        <v>0.1208989222343165</v>
+      </c>
+      <c r="AO18">
+        <v>1.907627466820554E-2</v>
+      </c>
+      <c r="AP18">
+        <v>2.3864838370923264E-2</v>
+      </c>
+      <c r="AQ18">
+        <v>0.14521049218255985</v>
+      </c>
+      <c r="AR18">
+        <v>0.1403165210264411</v>
+      </c>
+      <c r="AS18">
+        <v>0.21408797664024815</v>
+      </c>
+      <c r="AT18">
+        <v>0.12811555487480208</v>
+      </c>
+      <c r="AV18">
+        <v>9.3135586928772048E-3</v>
+      </c>
+      <c r="AW18">
+        <v>1.2705903756929347E-2</v>
+      </c>
+      <c r="AX18">
+        <v>5.3271178974927648E-2</v>
+      </c>
+      <c r="AY18">
+        <v>4.4262711842979419E-2</v>
+      </c>
+      <c r="AZ18">
+        <v>6.2299059774654818E-3</v>
+      </c>
+      <c r="BA18">
+        <v>8.9094389695614177E-3</v>
+      </c>
+      <c r="BB18">
+        <v>5.9350642817436218E-2</v>
+      </c>
+      <c r="BC18">
+        <v>5.8467604465413096E-2</v>
+      </c>
+      <c r="BD18">
+        <v>8.7736093111175015E-2</v>
+      </c>
+      <c r="BE18">
+        <v>6.1359913093242395E-2</v>
+      </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>16</v>
       </c>
@@ -34301,7 +35323,7 @@
         <v>3.3479288500000003E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>17</v>
       </c>
@@ -34366,7 +35388,7 @@
         <v>3.6004028E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>18</v>
       </c>
@@ -34430,8 +35452,29 @@
       <c r="V21">
         <v>3.8744620649999999E-2</v>
       </c>
+      <c r="AJ21" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>20</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>21</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>22</v>
+      </c>
+      <c r="AO21" t="s">
+        <v>23</v>
+      </c>
+      <c r="AP21" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>19</v>
       </c>
@@ -34495,8 +35538,23 @@
       <c r="V22">
         <v>4.1809351749999987E-2</v>
       </c>
+      <c r="AL22" t="s">
+        <v>13</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>14</v>
+      </c>
+      <c r="AN22" t="s">
+        <v>15</v>
+      </c>
+      <c r="AO22" t="s">
+        <v>16</v>
+      </c>
+      <c r="AP22" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>20</v>
       </c>
@@ -34560,8 +35618,29 @@
       <c r="V23">
         <v>4.5241110200000004E-2</v>
       </c>
+      <c r="AJ23" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK23" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL23" s="2">
+        <v>2.2939232999999996E-2</v>
+      </c>
+      <c r="AM23" s="2">
+        <v>0.31142857135000007</v>
+      </c>
+      <c r="AN23" s="2">
+        <v>0.29104358039730344</v>
+      </c>
+      <c r="AO23" s="2">
+        <v>0.31142857135000007</v>
+      </c>
+      <c r="AP23" s="2">
+        <v>6.0869027866486507E-2</v>
+      </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>21</v>
       </c>
@@ -34625,8 +35704,26 @@
       <c r="V24">
         <v>4.8319218050000001E-2</v>
       </c>
+      <c r="AK24" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL24" s="2">
+        <v>1.1616719250000001E-2</v>
+      </c>
+      <c r="AM24" s="2">
+        <v>0.30497230735000003</v>
+      </c>
+      <c r="AN24" s="2">
+        <v>0.2783075201298002</v>
+      </c>
+      <c r="AO24" s="2">
+        <v>0.30309543625000002</v>
+      </c>
+      <c r="AP24" s="2">
+        <v>7.0101685641197398E-2</v>
+      </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>22</v>
       </c>
@@ -34690,8 +35787,29 @@
       <c r="V25">
         <v>5.1716403350000009E-2</v>
       </c>
+      <c r="AJ25" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK25" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL25" s="2">
+        <v>2.3012370949999996E-2</v>
+      </c>
+      <c r="AM25" s="2">
+        <v>0.65999999984999991</v>
+      </c>
+      <c r="AN25" s="2">
+        <v>0.57078692449810042</v>
+      </c>
+      <c r="AO25" s="2">
+        <v>0.62666666650000002</v>
+      </c>
+      <c r="AP25" s="2">
+        <v>0.15588293799573241</v>
+      </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>23</v>
       </c>
@@ -34755,8 +35873,26 @@
       <c r="V26">
         <v>5.5281221650000011E-2</v>
       </c>
+      <c r="AK26" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL26" s="2">
+        <v>1.1623308299999999E-2</v>
+      </c>
+      <c r="AM26" s="2">
+        <v>0.46981334069999992</v>
+      </c>
+      <c r="AN26" s="2">
+        <v>0.40394139489079989</v>
+      </c>
+      <c r="AO26" s="2">
+        <v>0.45017258540000005</v>
+      </c>
+      <c r="AP26" s="2">
+        <v>0.1208989222343165</v>
+      </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>24</v>
       </c>
@@ -34820,8 +35956,29 @@
       <c r="V27">
         <v>5.8939586400000007E-2</v>
       </c>
+      <c r="AJ27" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK27" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL27" s="2">
+        <v>2.2842014149999996E-2</v>
+      </c>
+      <c r="AM27" s="2">
+        <v>0.13393273394999999</v>
+      </c>
+      <c r="AN27" s="2">
+        <v>0.12949918073369893</v>
+      </c>
+      <c r="AO27" s="2">
+        <v>0.13393273394999999</v>
+      </c>
+      <c r="AP27" s="2">
+        <v>1.907627466820554E-2</v>
+      </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>25</v>
       </c>
@@ -34885,8 +36042,26 @@
       <c r="V28">
         <v>6.3109505450000006E-2</v>
       </c>
+      <c r="AK28" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL28" s="2">
+        <v>1.1623674649999999E-2</v>
+      </c>
+      <c r="AM28" s="2">
+        <v>0.13332911694999999</v>
+      </c>
+      <c r="AN28" s="2">
+        <v>0.12696558765659988</v>
+      </c>
+      <c r="AO28" s="2">
+        <v>0.1330940283</v>
+      </c>
+      <c r="AP28" s="2">
+        <v>2.3864838370923264E-2</v>
+      </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>26</v>
       </c>
@@ -34950,8 +36125,29 @@
       <c r="V29">
         <v>6.7097430700000002E-2</v>
       </c>
+      <c r="AJ29" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK29" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL29" s="2">
+        <v>2.216414865E-2</v>
+      </c>
+      <c r="AM29" s="2">
+        <v>0.63999999989999989</v>
+      </c>
+      <c r="AN29" s="2">
+        <v>0.47902676012500073</v>
+      </c>
+      <c r="AO29" s="2">
+        <v>0.5238095237</v>
+      </c>
+      <c r="AP29" s="2">
+        <v>0.14521049218255985</v>
+      </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>27</v>
       </c>
@@ -35015,8 +36211,26 @@
       <c r="V30">
         <v>7.0878924900000001E-2</v>
       </c>
+      <c r="AK30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL30" s="2">
+        <v>1.1617133500000001E-2</v>
+      </c>
+      <c r="AM30" s="2">
+        <v>0.54372132915000004</v>
+      </c>
+      <c r="AN30" s="2">
+        <v>0.43531526279989968</v>
+      </c>
+      <c r="AO30" s="2">
+        <v>0.50534955310000007</v>
+      </c>
+      <c r="AP30" s="2">
+        <v>0.1403165210264411</v>
+      </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>28</v>
       </c>
@@ -35080,8 +36294,29 @@
       <c r="V31">
         <v>7.4762815900000001E-2</v>
       </c>
+      <c r="AJ31" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK31" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL31" s="2">
+        <v>2.2668472399999997E-2</v>
+      </c>
+      <c r="AM31" s="2">
+        <v>0.89333333329999998</v>
+      </c>
+      <c r="AN31" s="2">
+        <v>0.69643579761379892</v>
+      </c>
+      <c r="AO31" s="2">
+        <v>0.75333333325000007</v>
+      </c>
+      <c r="AP31" s="2">
+        <v>0.21408797664024815</v>
+      </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>29</v>
       </c>
@@ -35145,8 +36380,26 @@
       <c r="V32">
         <v>7.8625129250000023E-2</v>
       </c>
+      <c r="AK32" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL32" s="2">
+        <v>1.16441802E-2</v>
+      </c>
+      <c r="AM32" s="2">
+        <v>0.48684931475000004</v>
+      </c>
+      <c r="AN32" s="2">
+        <v>0.38035158755459997</v>
+      </c>
+      <c r="AO32" s="2">
+        <v>0.42525472402499997</v>
+      </c>
+      <c r="AP32" s="2">
+        <v>0.12811555487480208</v>
+      </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>30</v>
       </c>
@@ -35210,8 +36463,13 @@
       <c r="V33">
         <v>8.2319991699999998E-2</v>
       </c>
+      <c r="AL33" s="2"/>
+      <c r="AM33" s="2"/>
+      <c r="AN33" s="2"/>
+      <c r="AO33" s="2"/>
+      <c r="AP33" s="2"/>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>31</v>
       </c>
@@ -35275,8 +36533,29 @@
       <c r="V34">
         <v>8.5965077849999988E-2</v>
       </c>
+      <c r="AJ34" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL34" s="2">
+        <v>2.2634790049999999E-2</v>
+      </c>
+      <c r="AM34" s="2">
+        <v>9.0923194499999999E-2</v>
+      </c>
+      <c r="AN34" s="2">
+        <v>8.9038770082400173E-2</v>
+      </c>
+      <c r="AO34" s="2">
+        <v>9.0923194499999999E-2</v>
+      </c>
+      <c r="AP34" s="2">
+        <v>9.3135586928772048E-3</v>
+      </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>32</v>
       </c>
@@ -35340,8 +36619,26 @@
       <c r="V35">
         <v>9.0107863450000006E-2</v>
       </c>
+      <c r="AK35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL35" s="2">
+        <v>1.1615175700000001E-2</v>
+      </c>
+      <c r="AM35" s="2">
+        <v>9.065244674999999E-2</v>
+      </c>
+      <c r="AN35" s="2">
+        <v>8.7714344755699933E-2</v>
+      </c>
+      <c r="AO35" s="2">
+        <v>9.0549991375E-2</v>
+      </c>
+      <c r="AP35" s="2">
+        <v>1.2705903756929347E-2</v>
+      </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>33</v>
       </c>
@@ -35405,8 +36702,29 @@
       <c r="V36">
         <v>9.4946905849999999E-2</v>
       </c>
+      <c r="AJ36" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK36" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL36" s="2">
+        <v>2.24400066E-2</v>
+      </c>
+      <c r="AM36" s="2">
+        <v>0.33523809509999991</v>
+      </c>
+      <c r="AN36" s="2">
+        <v>0.23319419020260179</v>
+      </c>
+      <c r="AO36" s="2">
+        <v>0.23904761894999998</v>
+      </c>
+      <c r="AP36" s="2">
+        <v>5.3271178974927648E-2</v>
+      </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>34</v>
       </c>
@@ -35470,8 +36788,26 @@
       <c r="V37">
         <v>0.10036586365</v>
       </c>
+      <c r="AK37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL37" s="2">
+        <v>1.160562205E-2</v>
+      </c>
+      <c r="AM37" s="2">
+        <v>0.27191441359999996</v>
+      </c>
+      <c r="AN37" s="2">
+        <v>0.19251076985780002</v>
+      </c>
+      <c r="AO37" s="2">
+        <v>0.19898361772500001</v>
+      </c>
+      <c r="AP37" s="2">
+        <v>4.4262711842979419E-2</v>
+      </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>35</v>
       </c>
@@ -35535,8 +36871,29 @@
       <c r="V38">
         <v>0.10642068860000001</v>
       </c>
+      <c r="AJ38" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK38" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL38" s="2">
+        <v>2.2488470149999999E-2</v>
+      </c>
+      <c r="AM38" s="2">
+        <v>7.2837386350000019E-2</v>
+      </c>
+      <c r="AN38" s="2">
+        <v>7.1613021295099916E-2</v>
+      </c>
+      <c r="AO38" s="2">
+        <v>7.2837386350000019E-2</v>
+      </c>
+      <c r="AP38" s="2">
+        <v>6.2299059774654818E-3</v>
+      </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>36</v>
       </c>
@@ -35600,8 +36957,26 @@
       <c r="V39">
         <v>0.11138899840000001</v>
       </c>
+      <c r="AK39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL39" s="2">
+        <v>1.1619240800000001E-2</v>
+      </c>
+      <c r="AM39" s="2">
+        <v>7.2563329300000007E-2</v>
+      </c>
+      <c r="AN39" s="2">
+        <v>7.0532931511400027E-2</v>
+      </c>
+      <c r="AO39" s="2">
+        <v>7.2472778450000011E-2</v>
+      </c>
+      <c r="AP39" s="2">
+        <v>8.9094389695614177E-3</v>
+      </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>37</v>
       </c>
@@ -35665,8 +37040,29 @@
       <c r="V40">
         <v>0.11488150475</v>
       </c>
+      <c r="AJ40" t="s">
+        <v>10</v>
+      </c>
+      <c r="AK40" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL40" s="2">
+        <v>2.2777439400000002E-2</v>
+      </c>
+      <c r="AM40" s="2">
+        <v>0.30380952364999997</v>
+      </c>
+      <c r="AN40" s="2">
+        <v>0.23098290762050022</v>
+      </c>
+      <c r="AO40" s="2">
+        <v>0.22978354970000003</v>
+      </c>
+      <c r="AP40" s="2">
+        <v>5.9350642817436218E-2</v>
+      </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>38</v>
       </c>
@@ -35730,8 +37126,26 @@
       <c r="V41">
         <v>0.11796992785000002</v>
       </c>
+      <c r="AK41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL41" s="2">
+        <v>1.163091845E-2</v>
+      </c>
+      <c r="AM41" s="2">
+        <v>0.27820233175000003</v>
+      </c>
+      <c r="AN41" s="2">
+        <v>0.2174146790384</v>
+      </c>
+      <c r="AO41" s="2">
+        <v>0.22194229787499997</v>
+      </c>
+      <c r="AP41" s="2">
+        <v>5.8467604465413096E-2</v>
+      </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>39</v>
       </c>
@@ -35795,8 +37209,29 @@
       <c r="V42">
         <v>0.12052422925000002</v>
       </c>
+      <c r="AJ42" t="s">
+        <v>11</v>
+      </c>
+      <c r="AK42" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL42" s="2">
+        <v>2.2975706199999998E-2</v>
+      </c>
+      <c r="AM42" s="2">
+        <v>0.39047619029999991</v>
+      </c>
+      <c r="AN42" s="2">
+        <v>0.34425292798690227</v>
+      </c>
+      <c r="AO42" s="2">
+        <v>0.38222222204999995</v>
+      </c>
+      <c r="AP42" s="2">
+        <v>8.7736093111175015E-2</v>
+      </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>40</v>
       </c>
@@ -35860,8 +37295,26 @@
       <c r="V43">
         <v>0.12415863035000001</v>
       </c>
+      <c r="AK43" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL43" s="2">
+        <v>1.16226292E-2</v>
+      </c>
+      <c r="AM43" s="2">
+        <v>0.27650035125000005</v>
+      </c>
+      <c r="AN43" s="2">
+        <v>0.24126169728500013</v>
+      </c>
+      <c r="AO43" s="2">
+        <v>0.26644569434999998</v>
+      </c>
+      <c r="AP43" s="2">
+        <v>6.1359913093242395E-2</v>
+      </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>41</v>
       </c>
@@ -35926,7 +37379,7 @@
         <v>0.12824496970000002</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>42</v>
       </c>
@@ -35991,7 +37444,7 @@
         <v>0.13435417574999994</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>43</v>
       </c>
@@ -36056,7 +37509,7 @@
         <v>0.13983635785000001</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>44</v>
       </c>
@@ -36120,8 +37573,11 @@
       <c r="V47">
         <v>0.14526253749999998</v>
       </c>
+      <c r="AK47" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>45</v>
       </c>
@@ -36185,8 +37641,12 @@
       <c r="V48">
         <v>0.14933239455</v>
       </c>
+      <c r="AK48">
+        <f>TTEST(U:U,J:J,2,2)</f>
+        <v>3.6411313770945904E-169</v>
+      </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>46</v>
       </c>
@@ -36251,7 +37711,7 @@
         <v>0.15343121485000005</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>47</v>
       </c>
@@ -36315,8 +37775,11 @@
       <c r="V50">
         <v>0.15570130249999997</v>
       </c>
+      <c r="AK50" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>48</v>
       </c>
@@ -36380,8 +37843,12 @@
       <c r="V51">
         <v>0.16057072250000007</v>
       </c>
+      <c r="AK51">
+        <f>TTEST(J:J,B:B,2,2)</f>
+        <v>2.0936759412070904E-214</v>
+      </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>49</v>
       </c>
@@ -36446,7 +37913,7 @@
         <v>0.16723578119999999</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>50</v>
       </c>
@@ -36510,8 +37977,11 @@
       <c r="V53">
         <v>0.17506453560000004</v>
       </c>
+      <c r="AK53" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>51</v>
       </c>
@@ -36575,8 +38045,12 @@
       <c r="V54">
         <v>0.18431135300000001</v>
       </c>
+      <c r="AK54">
+        <f>TTEST(D:D,H:H,2,2)</f>
+        <v>4.7008310650157267E-21</v>
+      </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>52</v>
       </c>
@@ -36641,7 +38115,7 @@
         <v>0.19057535245000001</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>53</v>
       </c>
@@ -36706,7 +38180,7 @@
         <v>0.19369540190000001</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>54</v>
       </c>
@@ -36771,7 +38245,7 @@
         <v>0.19405573464999998</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>55</v>
       </c>
@@ -36836,7 +38310,7 @@
         <v>0.19432080300000001</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>56</v>
       </c>
@@ -36901,7 +38375,7 @@
         <v>0.1961479874</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>57</v>
       </c>
@@ -36966,7 +38440,7 @@
         <v>0.19734664515000006</v>
       </c>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>58</v>
       </c>
@@ -37031,7 +38505,7 @@
         <v>0.19737950060000001</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>59</v>
       </c>
@@ -37096,7 +38570,7 @@
         <v>0.19681399625000001</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>60</v>
       </c>
@@ -37161,7 +38635,7 @@
         <v>0.19789233540000001</v>
       </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>61</v>
       </c>
@@ -65697,19 +67171,33 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="20">
+    <mergeCell ref="AV1:AW1"/>
+    <mergeCell ref="AX1:AY1"/>
+    <mergeCell ref="AZ1:BA1"/>
+    <mergeCell ref="BB1:BC1"/>
+    <mergeCell ref="BD1:BE1"/>
+    <mergeCell ref="AK1:AL1"/>
+    <mergeCell ref="AM1:AN1"/>
+    <mergeCell ref="AO1:AP1"/>
+    <mergeCell ref="AQ1:AR1"/>
+    <mergeCell ref="AS1:AT1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U1:V1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U1:V1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>